--- a/doc/journal de board/Journal de board.xlsx
+++ b/doc/journal de board/Journal de board.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clion\MA-20\Bataille-Navale.Meline.Juillet\doc\journal de board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clion_Exercises\Bataille navale\Bataille-Navale\doc\journal de board\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABCD498-2CE2-4F9E-817E-5FAB16615C21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="31290" yWindow="1935" windowWidth="21600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -37,11 +38,14 @@
   <si>
     <t xml:space="preserve">créateur : Mikael Juillet </t>
   </si>
+  <si>
+    <t>Retour du mandant sur les sprint</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,6 +113,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -117,9 +124,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,110 +404,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43901</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="7" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
